--- a/data/trans_dic/IP16A11_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A11_2023-Edad-trans_dic.xlsx
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>32,87%</t>
+          <t>30,93%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>34,92%</t>
+          <t>39,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>33,83%</t>
+          <t>35,39%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,68; 42,73</t>
+          <t>20,72; 42,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,33; 45,73</t>
+          <t>28,18; 51,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,0; 41,21</t>
+          <t>27,25; 43,15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>30,93%</t>
+          <t>32,87%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>39,64%</t>
+          <t>34,92%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>35,39%</t>
+          <t>33,83%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,72; 42,91</t>
+          <t>23,68; 42,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>28,18; 51,74</t>
+          <t>22,33; 45,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,25; 43,15</t>
+          <t>26,0; 41,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A11_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A11_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>30,54%</t>
+          <t>24,19%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>35,0%</t>
+          <t>35,65%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,44%</t>
+          <t>29,22%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,7; 42,88</t>
+          <t>12,1; 40,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,13; 50,94</t>
+          <t>19,4; 53,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,29; 42,08</t>
+          <t>19,52; 40,99</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>30,93%</t>
+          <t>30,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>39,64%</t>
+          <t>34,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>35,39%</t>
+          <t>32,54%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,72; 42,91</t>
+          <t>21,51; 42,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,18; 51,74</t>
+          <t>23,46; 45,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,25; 43,15</t>
+          <t>25,23; 40,54</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32,87%</t>
+          <t>33,73%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>34,92%</t>
+          <t>52,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>33,83%</t>
+          <t>42,11%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,68; 42,73</t>
+          <t>21,92; 47,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,33; 45,73</t>
+          <t>37,86; 64,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,0; 41,21</t>
+          <t>32,44; 51,67</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>31,8%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>36,58%</t>
+          <t>28,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>34,07%</t>
+          <t>31,36%</t>
         </is>
       </c>
     </row>
@@ -729,23 +729,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,66; 38,59</t>
+          <t>22,83; 46,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,14; 43,57</t>
+          <t>15,19; 41,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,02; 38,24</t>
+          <t>22,4; 40,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>31,8%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>36,58%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>34,07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>25,87; 38,94</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>28,16; 43,3</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>29,18; 38,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_dic/IP16A11_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A11_2023-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,1; 40,56</t>
+          <t>12,41; 39,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,4; 53,96</t>
+          <t>20,1; 54,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,52; 40,99</t>
+          <t>19,32; 41,37</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,51; 42,08</t>
+          <t>20,59; 42,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,46; 45,27</t>
+          <t>23,24; 46,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,23; 40,54</t>
+          <t>24,64; 41,14</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,92; 47,57</t>
+          <t>21,3; 47,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,86; 64,63</t>
+          <t>38,5; 65,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,44; 51,67</t>
+          <t>32,81; 51,85</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,83; 46,2</t>
+          <t>22,93; 46,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,19; 41,21</t>
+          <t>17,45; 42,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,4; 40,79</t>
+          <t>22,57; 40,78</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25,87; 38,94</t>
+          <t>26,08; 38,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>28,16; 43,3</t>
+          <t>29,28; 44,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,18; 38,56</t>
+          <t>29,35; 38,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A11_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A11_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,19%</t>
+          <t>36,07%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>35,65%</t>
+          <t>23,52%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>29,22%</t>
+          <t>28,83%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,41; 39,29</t>
+          <t>20,51; 54,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,1; 54,65</t>
+          <t>12,54; 39,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,32; 41,37</t>
+          <t>19,46; 39,96</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>30,74%</t>
+          <t>33,41%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>34,4%</t>
+          <t>31,01%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,54%</t>
+          <t>32,18%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,59; 42,82</t>
+          <t>22,79; 45,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,24; 46,74</t>
+          <t>20,51; 43,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,64; 41,14</t>
+          <t>24,43; 40,29</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>33,73%</t>
+          <t>50,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>52,0%</t>
+          <t>33,87%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>42,11%</t>
+          <t>41,44%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,3; 47,38</t>
+          <t>36,24; 63,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>38,5; 65,05</t>
+          <t>22,52; 47,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,81; 51,85</t>
+          <t>31,12; 51,22</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>33,79%</t>
+          <t>20,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>34,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,36%</t>
+          <t>27,09%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,93; 46,71</t>
+          <t>7,61; 38,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,45; 42,18</t>
+          <t>22,64; 47,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,57; 40,78</t>
+          <t>14,13; 37,26</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>31,8%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>36,58%</t>
+          <t>32,06%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>34,07%</t>
+          <t>31,92%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26,08; 38,0</t>
+          <t>19,31; 40,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>29,28; 44,19</t>
+          <t>25,86; 39,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,35; 38,91</t>
+          <t>24,16; 36,15</t>
         </is>
       </c>
     </row>
